--- a/molecules-lists/90_Immunometabolites.xlsx
+++ b/molecules-lists/90_Immunometabolites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DATA\NiCEMSI\People\Chelsea\Metabolite Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2019_Scripts for Data Processing\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8490"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23040" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,22 +470,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,15 +508,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,18 +829,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="15"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="8.85546875" style="11"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
@@ -864,295 +848,295 @@
         <v>88.100048393999998</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>90.031694057999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>117.057849229</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>118.02660868</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>123.03202840900001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>130.02660868000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>131.073499293</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>132.08987763799999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>133.05276385100001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>137.04767899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>145.05276385100001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>145.157897623</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>146.069142196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>147.05315778100001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>153.042593095</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>159.06841391500001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>160.10004799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>167.02185765300001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>174.11167571199999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>175.06332853699999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>176.09496301600001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>180.063388116</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>189.042593095</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>191.058243159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>202.215746852</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>203.058243159</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>204.08987763799999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>205.03750771700001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>208.08479226</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>213.00957840699999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>218.10552770199999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>220.08479226</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>224.07970688200001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>232.12117776599999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>262.07422800000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>267.09675392899999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>300.038235998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>130</v>
       </c>
@@ -1160,179 +1144,179 @@
         <v>304.240230268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="11">
         <v>316.203845</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>318.21949482600002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="11">
         <v>320.23514489000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>336.23005950999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="11">
         <v>338.24570999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>347.063084339</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>350.20932499999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>352.22497413399998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>354.24062500000002</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>356.25627500000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="11">
         <v>368.21989000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>370.23553881999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>427.02941474900001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="11">
         <v>439.23924599999998</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="11">
         <v>498.27636000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>506.99574515900002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="11">
         <v>623.28765399999997</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="11">
         <v>625.30330400000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="11">
         <v>627.31895399999996</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>881.14690242300003</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="11">
         <v>496.26071000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="11">
         <v>334.21440999999999</v>
       </c>
     </row>

--- a/molecules-lists/90_Immunometabolites.xlsx
+++ b/molecules-lists/90_Immunometabolites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2019_Scripts for Data Processing\molecules-lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DATA\NiCEMSI\People\Chelsea\Metabolite Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23040" windowHeight="8490"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,10 +470,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri Light"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,11 +520,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,18 +845,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="11"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="8.85546875" style="15"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
@@ -848,295 +864,295 @@
         <v>88.100048393999998</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>90.031694057999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>117.057849229</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>118.02660868</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>123.03202840900001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>130.02660868000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>131.073499293</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>132.08987763799999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>133.05276385100001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>137.04767899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>145.05276385100001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>145.157897623</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>146.069142196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>147.05315778100001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>153.042593095</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>159.06841391500001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="14">
         <v>160.10004799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>167.02185765300001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>174.11167571199999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>175.06332853699999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>176.09496301600001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>180.063388116</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>189.042593095</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>191.058243159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>202.215746852</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>203.058243159</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>204.08987763799999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>205.03750771700001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>208.08479226</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>213.00957840699999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>218.10552770199999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>220.08479226</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>224.07970688200001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="12">
         <v>232.12117776599999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="14">
         <v>262.07422800000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>267.09675392899999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>300.038235998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>130</v>
       </c>
@@ -1144,179 +1160,179 @@
         <v>304.240230268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="15">
         <v>316.203845</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>318.21949482600002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="15">
         <v>320.23514489000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <v>336.23005950999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="15">
         <v>338.24570999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="12">
         <v>347.063084339</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="14">
         <v>350.20932499999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="12">
         <v>352.22497413399998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="14">
         <v>354.24062500000002</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="14">
         <v>356.25627500000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="15">
         <v>368.21989000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>370.23553881999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>427.02941474900001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="15">
         <v>439.23924599999998</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="15">
         <v>498.27636000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>506.99574515900002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="15">
         <v>623.28765399999997</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="15">
         <v>625.30330400000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="15">
         <v>627.31895399999996</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>881.14690242300003</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="15">
         <v>496.26071000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="15">
         <v>334.21440999999999</v>
       </c>
     </row>
